--- a/examen/EKO 16-П-1.xlsx
+++ b/examen/EKO 16-П-1.xlsx
@@ -249,7 +249,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -257,30 +284,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,16 +291,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -305,76 +305,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -395,26 +325,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,778 +629,779 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B4:T16"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="4" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6">
         <v>43094</v>
       </c>
-      <c r="G5" s="18">
+      <c r="F2" s="6">
         <v>43095</v>
       </c>
-      <c r="H5" s="18">
+      <c r="G2" s="6">
         <v>43096</v>
       </c>
-      <c r="I5" s="18">
+      <c r="H2" s="6">
         <v>43097</v>
       </c>
-      <c r="J5" s="18">
+      <c r="I2" s="6">
         <v>43116</v>
       </c>
-      <c r="K5" s="18">
+      <c r="J2" s="6">
         <v>43117</v>
       </c>
-      <c r="L5" s="18">
+      <c r="K2" s="6">
         <v>43118</v>
       </c>
-      <c r="M5" s="18">
+      <c r="L2" s="6">
         <v>43122</v>
       </c>
-      <c r="N5" s="18">
+      <c r="M2" s="6">
         <v>43123</v>
       </c>
-      <c r="O5" s="18">
+      <c r="N2" s="6">
         <v>43124</v>
       </c>
-      <c r="P5" s="18">
+      <c r="O2" s="6">
         <v>43125</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C3" s="2">
         <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <f>SUM(E3:O3)/11</f>
+        <v>9.545454545454545</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3">
+        <f>P3*0.6+(Q3*0.4+R3*0.6)*0.4</f>
+        <v>5.7272727272727266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:D13" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <f>SUM(E4:O4)/11</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4:S13" si="1">P4*0.6+(Q4*0.4+R4*0.6)*0.4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <f ca="1">RANDBETWEEN(1,20)</f>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="F6" s="13">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>12</v>
-      </c>
-      <c r="K6" s="13">
-        <v>12</v>
-      </c>
-      <c r="L6" s="13">
-        <v>11</v>
-      </c>
-      <c r="M6" s="13">
-        <v>12</v>
-      </c>
-      <c r="N6" s="13">
-        <v>10</v>
-      </c>
-      <c r="O6" s="13">
-        <v>1</v>
-      </c>
-      <c r="P6" s="13">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="14">
-        <f>SUM(F6:P6)/11</f>
-        <v>9.545454545454545</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3">
-        <f>Q6*0.6+(R6*0.4+S6*0.6)*0.4</f>
-        <v>5.7272727272727266</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:E16" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>19</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
-      <c r="P7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14">
-        <f>SUM(F7:P7)/11</f>
-        <v>1</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3">
-        <f t="shared" ref="T7:T16" si="1">Q7*0.6+(R7*0.4+S7*0.6)*0.4</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1</v>
-      </c>
-      <c r="L8" s="13">
-        <v>1</v>
-      </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13">
-        <v>1</v>
-      </c>
-      <c r="P8" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" ref="Q7:Q16" si="2">SUM(F8:P8)/11</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3">
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:P13" si="2">SUM(E5:O5)/11</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="K9" s="13">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13">
-        <v>1</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="14">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>2.3636363636363638</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3">
         <f t="shared" si="1"/>
         <v>1.4181818181818182</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F10" s="13">
-        <v>9</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>7</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K7" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1</v>
-      </c>
-      <c r="O10" s="13">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
         <v>2.9090909090909092</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>8</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="1"/>
-        <v>1.7454545454545454</v>
+        <v>3.6654545454545451</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13">
-        <v>8</v>
-      </c>
-      <c r="H11" s="13">
-        <v>11</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
-        <v>6</v>
-      </c>
-      <c r="K11" s="13">
-        <v>7</v>
-      </c>
-      <c r="L11" s="13">
-        <v>9</v>
-      </c>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
         <f t="shared" si="2"/>
         <v>5.0909090909090908</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="3">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3">
         <f t="shared" si="1"/>
         <v>3.0545454545454542</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E9" s="4">
         <v>11</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>12</v>
       </c>
-      <c r="J12" s="13">
+      <c r="I9" s="4">
         <v>12</v>
       </c>
-      <c r="K12" s="13">
+      <c r="J9" s="4">
         <v>12</v>
       </c>
-      <c r="L12" s="13">
-        <v>1</v>
-      </c>
-      <c r="M12" s="13">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="O12" s="13">
+      <c r="N9" s="4">
         <v>11</v>
       </c>
-      <c r="P12" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>7.6363636363636367</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="3">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3">
         <f t="shared" si="1"/>
         <v>4.581818181818182</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
         <v>11</v>
       </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
         <v>12</v>
       </c>
-      <c r="I13" s="13">
+      <c r="H10" s="4">
         <v>11</v>
       </c>
-      <c r="J13" s="13">
+      <c r="I10" s="4">
         <v>10</v>
       </c>
-      <c r="K13" s="13">
+      <c r="J10" s="4">
         <v>11</v>
       </c>
-      <c r="L13" s="13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="14">
+      <c r="K10" s="4">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="2"/>
-        <v>5.5454545454545459</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3">
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3">
         <f t="shared" si="1"/>
-        <v>3.3272727272727276</v>
+        <v>3.7636363636363632</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="F14" s="13">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13">
-        <v>11</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
-        <v>11</v>
-      </c>
-      <c r="J14" s="13">
-        <v>9</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
         <v>10</v>
       </c>
-      <c r="M14" s="13">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>5.2727272727272725</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="3">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="3">
         <f t="shared" si="1"/>
         <v>3.1636363636363636</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="13">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13">
-        <v>1</v>
-      </c>
-      <c r="O15" s="13">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="14">
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="2"/>
         <v>1.7272727272727273</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="3">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="3">
         <f t="shared" si="1"/>
         <v>1.0363636363636364</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
         <v>11</v>
       </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-      <c r="M16" s="13">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13">
-        <v>1</v>
-      </c>
-      <c r="O16" s="13">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="14">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="2"/>
         <v>1.9090909090909092</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="3">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3">
         <f t="shared" si="1"/>
         <v>1.1454545454545455</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q6:Q16">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+  <conditionalFormatting sqref="P3:P13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>5</formula>
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
-      <formula>5</formula>
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>8</formula>
       <formula>12</formula>
     </cfRule>

--- a/examen/EKO 16-П-1.xlsx
+++ b/examen/EKO 16-П-1.xlsx
@@ -632,23 +632,23 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -742,11 +742,11 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
         <v>11</v>
@@ -801,11 +801,11 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D13" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -860,11 +860,11 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -919,11 +919,11 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
@@ -978,11 +978,11 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>9</v>
@@ -1039,11 +1039,11 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4">
         <v>12</v>
@@ -1123,10 +1123,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M9" s="4">
         <v>10</v>
@@ -1135,17 +1135,17 @@
         <v>11</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="2"/>
-        <v>7.6363636363636367</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3">
         <f t="shared" si="1"/>
-        <v>4.581818181818182</v>
+        <v>6.709090909090909</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,11 +1157,11 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <v>11</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>11</v>
@@ -1244,26 +1244,26 @@
         <v>10</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="2"/>
-        <v>5.2727272727272725</v>
+        <v>7.4545454545454541</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="3">
         <f t="shared" si="1"/>
-        <v>3.1636363636363636</v>
+        <v>4.4727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1275,11 +1275,11 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
         <v>9</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
         <v>11</v>
